--- a/data/trans_dic/P38C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Edad-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.6546618411184227</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5936302011036679</v>
+        <v>0.5936302011036678</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6085335118481302</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5121639838147251</v>
+        <v>0.5158395153988264</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3646270835428163</v>
+        <v>0.3677149615845172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6070772294392196</v>
+        <v>0.6074048543334639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5222399623170297</v>
+        <v>0.520868880150393</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5742382603285514</v>
+        <v>0.5742094158505054</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4604551513965836</v>
+        <v>0.4597087317783012</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6104449772479827</v>
+        <v>0.6170780168257876</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5285028471868969</v>
+        <v>0.5264138307197134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7033221405611506</v>
+        <v>0.6988602392769916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6599934399149877</v>
+        <v>0.6590944209282981</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6429990648838184</v>
+        <v>0.6417429453135175</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5717404118059817</v>
+        <v>0.5673980833814682</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.8230124912074445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7534836526002157</v>
+        <v>0.7534836526002158</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7519638218420052</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6455624326022664</v>
+        <v>0.6452627302112213</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5826155602496726</v>
+        <v>0.5815765144204029</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7922002279976762</v>
+        <v>0.7884210899783519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7086460459368958</v>
+        <v>0.710719265895808</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7275490595920134</v>
+        <v>0.7261727622444323</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6630185247783705</v>
+        <v>0.6657098273430283</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.722800053088815</v>
+        <v>0.7231446795086762</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6951503259124636</v>
+        <v>0.6946095298485372</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8520776023084098</v>
+        <v>0.8533550323285014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7884089418546716</v>
+        <v>0.7934703475460985</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7766955093141789</v>
+        <v>0.7771166283505585</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7368067645024218</v>
+        <v>0.7333976554150405</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.8536486861214568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8422378651170324</v>
+        <v>0.8422378651170325</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8321628778505769</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7964177173393838</v>
+        <v>0.7964177173393839</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7767559558031852</v>
+        <v>0.7798088357415746</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7154329459039006</v>
+        <v>0.7048022476695998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.824399246748336</v>
+        <v>0.8248617970613894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8176899356281156</v>
+        <v>0.8145547935279528</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8090325738836696</v>
+        <v>0.809017786528155</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7741063464296436</v>
+        <v>0.7700033226884145</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8399540139856914</v>
+        <v>0.8436484418889099</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7898123797275832</v>
+        <v>0.7850919701456085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8775771920650044</v>
+        <v>0.8798961256285455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8694900473485335</v>
+        <v>0.8660738257294412</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8517001078683532</v>
+        <v>0.851919422833961</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8203252958948866</v>
+        <v>0.8181104748998219</v>
       </c>
     </row>
     <row r="13">
@@ -858,19 +858,19 @@
         <v>0.8723542541731487</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8640947587695424</v>
+        <v>0.8640947587695422</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9031674689477023</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9061166947195275</v>
+        <v>0.9061166947195276</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8878721627449316</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8856203724975263</v>
+        <v>0.8856203724975262</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8420744214333996</v>
+        <v>0.8398059978777529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8324193288537681</v>
+        <v>0.8345028157426883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8788134114108187</v>
+        <v>0.8764786604765717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.886608229387731</v>
+        <v>0.8877907738469024</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8670146634180478</v>
+        <v>0.8692411782825729</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8682498307659107</v>
+        <v>0.8671140067135257</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8979707911767542</v>
+        <v>0.898196032126766</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8889785496047585</v>
+        <v>0.8911064144796453</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9271528786299357</v>
+        <v>0.9243261830387213</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9225234407425176</v>
+        <v>0.922660653950008</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9030682005068067</v>
+        <v>0.90648991425231</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9012469383877555</v>
+        <v>0.8990295393410651</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.9220681402614601</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9091255918020932</v>
+        <v>0.9091255918020934</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9308909383846913</v>
@@ -952,7 +952,7 @@
         <v>0.9265599096339765</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9248606846112046</v>
+        <v>0.9248606846112044</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8926071261598924</v>
+        <v>0.8926112627333547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.884070089927552</v>
+        <v>0.8873828852127958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9017549590533294</v>
+        <v>0.9048561322634529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9243477350633181</v>
+        <v>0.9242102576911222</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9056437507425712</v>
+        <v>0.9041741675727474</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9096094000197071</v>
+        <v>0.9096004089820868</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9443774753595093</v>
+        <v>0.9464505198208245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9299960176735587</v>
+        <v>0.9303933604116877</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9515181890001736</v>
+        <v>0.9531141234170341</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9558913587547553</v>
+        <v>0.9538490292100497</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9430704070526563</v>
+        <v>0.9417169510990601</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9376765614282463</v>
+        <v>0.9375958166787328</v>
       </c>
     </row>
     <row r="19">
@@ -1028,13 +1028,13 @@
         <v>0.978489396316787</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9683193081856876</v>
+        <v>0.9683193081856875</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9743897561951004</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.9584790476692453</v>
+        <v>0.9584790476692454</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9426584860463594</v>
+        <v>0.9488139485161178</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9266603210645865</v>
+        <v>0.9265115107316571</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9592705861706406</v>
+        <v>0.9600376599565458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9539867003174268</v>
+        <v>0.9543083530492649</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9613095490694665</v>
+        <v>0.962091077372793</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.946030571902462</v>
+        <v>0.9456478450953916</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9848192894539561</v>
+        <v>0.987231933859676</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9637108845920177</v>
+        <v>0.9641349226872625</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9916424437771416</v>
+        <v>0.9897603119215105</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9788150163071208</v>
+        <v>0.9789841514128271</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9844711270976282</v>
+        <v>0.9844977571654078</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9691844581299055</v>
+        <v>0.968279123967742</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9516085347219103</v>
+        <v>0.9473932811694754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9635271512309154</v>
+        <v>0.9634902811805078</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9574232729899803</v>
+        <v>0.9588276893465856</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.947517430821777</v>
+        <v>0.947487206053233</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9625373976537803</v>
+        <v>0.9640100266939116</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9597366667046713</v>
+        <v>0.9593287633731787</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9872326814648016</v>
+        <v>0.9878195713973088</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9919046050960354</v>
+        <v>0.9918317828334431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.993739326044358</v>
+        <v>0.9937291549887257</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9773662942065515</v>
+        <v>0.9769747527633194</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9881125649808428</v>
+        <v>0.9889272154709108</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.980170886754648</v>
+        <v>0.9799249778898391</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.8147396208755932</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7935776510832028</v>
+        <v>0.7935776510832029</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.8744059359469158</v>
@@ -1198,7 +1198,7 @@
         <v>0.8453082010097103</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.8304626865372768</v>
+        <v>0.8304626865372766</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.800635928080064</v>
+        <v>0.8018062085413041</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7768762624246065</v>
+        <v>0.774725107950147</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.862665701263381</v>
+        <v>0.8621662198385857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8534915717541101</v>
+        <v>0.8543363227658608</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8357539324567703</v>
+        <v>0.8363310256453034</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8200778967687002</v>
+        <v>0.8204434622405447</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8281184956996255</v>
+        <v>0.8288384068012333</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.811274380042353</v>
+        <v>0.8083306866304452</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8853058656044034</v>
+        <v>0.8855395829301014</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8767263568064656</v>
+        <v>0.8768999247621044</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8537749270569657</v>
+        <v>0.85403784843585</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8404133901640413</v>
+        <v>0.8399799976433635</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>206421</v>
+        <v>207902</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>148692</v>
+        <v>149952</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>238468</v>
+        <v>238597</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>184788</v>
+        <v>184303</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>457008</v>
+        <v>456985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>350697</v>
+        <v>350128</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>246031</v>
+        <v>248705</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>215520</v>
+        <v>214668</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>276275</v>
+        <v>274522</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>233531</v>
+        <v>233213</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>511731</v>
+        <v>510731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>435455</v>
+        <v>432148</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>379868</v>
+        <v>379691</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>277844</v>
+        <v>277348</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>445643</v>
+        <v>443517</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>355090</v>
+        <v>356129</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>837385</v>
+        <v>835801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>648414</v>
+        <v>651046</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>425317</v>
+        <v>425519</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>331510</v>
+        <v>331252</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>479326</v>
+        <v>480045</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>395058</v>
+        <v>397595</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>893951</v>
+        <v>894436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>720577</v>
+        <v>717243</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>512982</v>
+        <v>514998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>443148</v>
+        <v>436564</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>538348</v>
+        <v>538650</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>508039</v>
+        <v>506091</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1062612</v>
+        <v>1062592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>960452</v>
+        <v>955361</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>554719</v>
+        <v>557159</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>489220</v>
+        <v>486296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>573075</v>
+        <v>574589</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>540223</v>
+        <v>538100</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1118653</v>
+        <v>1118941</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1017796</v>
+        <v>1015048</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>537026</v>
+        <v>535580</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>583207</v>
+        <v>584667</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>568613</v>
+        <v>567103</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>652367</v>
+        <v>653237</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1113911</v>
+        <v>1116772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1247170</v>
+        <v>1245538</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>572674</v>
+        <v>572817</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>622833</v>
+        <v>624324</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>599890</v>
+        <v>598061</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>678794</v>
+        <v>678895</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1160231</v>
+        <v>1164627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1294567</v>
+        <v>1291382</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>426593</v>
+        <v>426595</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>538705</v>
+        <v>540723</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>446959</v>
+        <v>448496</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>562794</v>
+        <v>562710</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>881710</v>
+        <v>880280</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1108088</v>
+        <v>1108077</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>451335</v>
+        <v>452326</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>566689</v>
+        <v>566931</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>471625</v>
+        <v>472416</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>581999</v>
+        <v>580756</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>918148</v>
+        <v>916830</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1142279</v>
+        <v>1142181</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>315159</v>
+        <v>317217</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>377225</v>
+        <v>377164</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>362376</v>
+        <v>362666</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>418959</v>
+        <v>419100</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>684541</v>
+        <v>685097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>800575</v>
+        <v>800251</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>329255</v>
+        <v>330061</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>392307</v>
+        <v>392480</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>374605</v>
+        <v>373894</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>429862</v>
+        <v>429937</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>701034</v>
+        <v>701053</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>820168</v>
+        <v>819402</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>243766</v>
+        <v>242686</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>298884</v>
+        <v>298873</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>381977</v>
+        <v>382538</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>439660</v>
+        <v>439646</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>630582</v>
+        <v>631547</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>743039</v>
+        <v>742723</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>252891</v>
+        <v>253042</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>307687</v>
+        <v>307664</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>396466</v>
+        <v>396462</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>453511</v>
+        <v>453329</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>647337</v>
+        <v>647871</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>758859</v>
+        <v>758669</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2688561</v>
+        <v>2692491</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2743413</v>
+        <v>2735816</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3043291</v>
+        <v>3041529</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3178459</v>
+        <v>3181605</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>5754841</v>
+        <v>5758815</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>5949996</v>
+        <v>5952649</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2780848</v>
+        <v>2783266</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2864884</v>
+        <v>2854489</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3123161</v>
+        <v>3123985</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3264987</v>
+        <v>3265633</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>5878930</v>
+        <v>5880741</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>6097539</v>
+        <v>6094394</v>
       </c>
     </row>
     <row r="36">
